--- a/PySpark/PySparkNotes.xlsx
+++ b/PySpark/PySparkNotes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="151">
   <si>
     <t>Why Spark</t>
   </si>
@@ -166,19 +166,557 @@
   </si>
   <si>
     <t>It is like display .. Take, collect, count, etc..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When calculation is applied, then new partitions are created </t>
+  </si>
+  <si>
+    <t>If there are 4 partitions, and we add 10 as sum, then 4 new partitions are created with 10 added.. As there are 4 new partitions for 4 old partitions, this is called MAPPING</t>
+  </si>
+  <si>
+    <t>There are two ways of creating RDDs</t>
+  </si>
+  <si>
+    <t>parallelize</t>
+  </si>
+  <si>
+    <t>Reference external dataset</t>
+  </si>
+  <si>
+    <t>rdd.getNumPartitions().. This will give partitions</t>
+  </si>
+  <si>
+    <t>rdd.glom().take(2) … Will return two partitions</t>
+  </si>
+  <si>
+    <t>rdd.glom().take(1000000)[-1] … Will return last partition</t>
+  </si>
+  <si>
+    <t>Here if you put a high number then also take() will not error out</t>
+  </si>
+  <si>
+    <t>top() will send the data to dirver node, so avoid if data is huge</t>
+  </si>
+  <si>
+    <t>rdd.filter()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdd.repartition(1) </t>
+  </si>
+  <si>
+    <t>This will make new and only 1 partition</t>
+  </si>
+  <si>
+    <t>The difference between filter and map is that map will return same number of items if the function is a bool as T,F,T,F etc… Whereas filter will only return values satisfying bool condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flatmap </t>
+  </si>
+  <si>
+    <t>if for each value you want the function to return two or more values, then map will put them in list and return, whereas flatmap will return single list</t>
+  </si>
+  <si>
+    <t>pip install pyspark</t>
+  </si>
+  <si>
+    <t>from pyspark import SparkContext, SparkConf</t>
+  </si>
+  <si>
+    <t>conf = SparkConf().setAppName('ap_name').setMaster('local[*]')</t>
+  </si>
+  <si>
+    <t>sc = SparkContext(conf= conf)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rdf1_map.reduce( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>lambda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> x,y: fnRed(x,y))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>rdf1_map.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">same as ---&gt; </t>
+  </si>
+  <si>
+    <t>fnRed is for max</t>
+  </si>
+  <si>
+    <r>
+      <t>rdf1_map= rdf1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>lambda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> x: x*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF116644"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF116644"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>This will create same number of new partitions with new values as RDD are readonly and old RDDs are not updated</t>
+  </si>
+  <si>
+    <t>descriptive statistictics can be applied</t>
+  </si>
+  <si>
+    <t>rdd.max()</t>
+  </si>
+  <si>
+    <t>rdd.av</t>
+  </si>
+  <si>
+    <t>mapPartitions().. This will go through each partition and return function value for each partition… user yield in place of return</t>
+  </si>
+  <si>
+    <t>rdf1_map.mapPartitions(fnRed).collect()</t>
+  </si>
+  <si>
+    <r>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>fnRed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF001080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>yield</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(x)</t>
+    </r>
+  </si>
+  <si>
+    <t>Advance RDD</t>
+  </si>
+  <si>
+    <t>coalease is used to reduce the number of partitions if there are empty partitions</t>
+  </si>
+  <si>
+    <t>union</t>
+  </si>
+  <si>
+    <t>intersection</t>
+  </si>
+  <si>
+    <t>rdd.coalesce(2).glom().collect()</t>
+  </si>
+  <si>
+    <t>here we want to have 2 partitions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">takeSample </t>
+  </si>
+  <si>
+    <t>the first argument is withReplacement</t>
+  </si>
+  <si>
+    <t>this should be avoided as this is run on driver node and if resultant dataset is huge, then all that will be loaded in memory</t>
+  </si>
+  <si>
+    <t>takeOrdered ()</t>
+  </si>
+  <si>
+    <t>takes one input of number of elements</t>
+  </si>
+  <si>
+    <t>should be avoided and for descending, it is complex and costly</t>
+  </si>
+  <si>
+    <t>reduce</t>
+  </si>
+  <si>
+    <t>aggregates the data elements using a function</t>
+  </si>
+  <si>
+    <t>takes 2 inputs</t>
+  </si>
+  <si>
+    <t>rdd.reduce(lambda x,y : x-y)</t>
+  </si>
+  <si>
+    <t>reduce is action so no need for .collect as it gives one value as output and not rdd</t>
+  </si>
+  <si>
+    <t>reduceByKey</t>
+  </si>
+  <si>
+    <t>rdd.reduceByKey(lambda x,y: x+y)</t>
+  </si>
+  <si>
+    <t>collect will be required</t>
+  </si>
+  <si>
+    <t>here rdd is created which has data as [(40, 110), (41, 121), (42, 433), (44, 221)]</t>
+  </si>
+  <si>
+    <t>rdd.keys().take()</t>
+  </si>
+  <si>
+    <t>this will give keys…. 40, 41, 42, 43 …</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdd.values().take(4) </t>
+  </si>
+  <si>
+    <t>this will give values … 110, 121, 433, 221</t>
+  </si>
+  <si>
+    <t>sc.parallelize([(40, 110), (41, 121), (42, 433), (44, 221)], numOfPartitions)</t>
+  </si>
+  <si>
+    <t>sortByKey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">after reduceByKey </t>
+  </si>
+  <si>
+    <t>sortByKey can be called</t>
+  </si>
+  <si>
+    <t>groupByKey</t>
+  </si>
+  <si>
+    <t>There is a difference between this and reduceByKey… In reduceByKey we aggregare the result</t>
+  </si>
+  <si>
+    <t>groupByKey will make all combinations of keys and values and send to driver node, so it is to be avoided</t>
+  </si>
+  <si>
+    <t>The value output for keys is a bit complex.. So see syntax ….</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lookup </t>
+  </si>
+  <si>
+    <t>This will get values of key passed as parameter to lookup</t>
+  </si>
+  <si>
+    <t>cache</t>
+  </si>
+  <si>
+    <t>If there is RDD that is needed again and again</t>
+  </si>
+  <si>
+    <t>it will not be deleted by garbage collection</t>
+  </si>
+  <si>
+    <t>persist</t>
+  </si>
+  <si>
+    <t>If the file is huge and memory is not sufficient, then a combination of memory and disc is used. Persist has storage level and you can set it</t>
+  </si>
+  <si>
+    <t>rdd.persist(StorageLevel.Memory_And_Disk)</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>RDD vs DF</t>
+  </si>
+  <si>
+    <t>RDD is any type and DF is more of structured</t>
+  </si>
+  <si>
+    <t>SparkContext and SQLContext is needed to work with DF</t>
+  </si>
+  <si>
+    <t>3 Ways</t>
+  </si>
+  <si>
+    <t>DF StandAlone</t>
+  </si>
+  <si>
+    <t>Transformations</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>select, Where, Filter, GroupBy</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>Spark SQL</t>
+  </si>
+  <si>
+    <t>UDF</t>
+  </si>
+  <si>
+    <t>More optimized for complex joins</t>
+  </si>
+  <si>
+    <t>better CPU and memory utilization</t>
+  </si>
+  <si>
+    <t>If any custoized function is to be applied</t>
+  </si>
+  <si>
+    <t>catalyst query optimization technique</t>
+  </si>
+  <si>
+    <t>And project Tungston</t>
+  </si>
+  <si>
+    <t>calatyst</t>
+  </si>
+  <si>
+    <t>Proj Tungston</t>
+  </si>
+  <si>
+    <t>rule based and cost based</t>
+  </si>
+  <si>
+    <t>memory mgmt technique</t>
+  </si>
+  <si>
+    <t>cache awareness</t>
+  </si>
+  <si>
+    <t>modern compilors</t>
+  </si>
+  <si>
+    <t>from pyspark.sql import SparkSession</t>
+  </si>
+  <si>
+    <t>spark = SparkSession.builder.master("local[*]").getorCreate()</t>
+  </si>
+  <si>
+    <t>spark.read.format('csv').load("path/file.csv")</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF795E26"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF116644"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF001080"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFAF00DB"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -201,8 +739,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P63"/>
+  <dimension ref="A1:X149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="H145" sqref="H145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -792,7 +1332,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="2:16">
       <c r="C49" t="s">
         <v>22</v>
       </c>
@@ -803,7 +1343,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="2:16">
       <c r="C50" t="s">
         <v>35</v>
       </c>
@@ -811,87 +1351,620 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
-      <c r="B54" t="s">
+    <row r="52" spans="2:16">
+      <c r="C52" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16">
+      <c r="C53" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16">
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16">
+      <c r="C55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16">
+      <c r="C56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J56" t="s">
+        <v>72</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O56" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16">
+      <c r="C57" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16">
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="2:16">
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="2:16">
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="2:16">
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="2:16">
+      <c r="C62" s="1"/>
+    </row>
+    <row r="64" spans="2:16">
+      <c r="B64" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
-      <c r="A55">
+    <row r="65" spans="1:8">
+      <c r="A65">
         <v>4</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B65" t="s">
         <v>37</v>
       </c>
-      <c r="C55">
+      <c r="C65">
         <v>1</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D65" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
-      <c r="C56">
+    <row r="66" spans="1:8">
+      <c r="C66">
         <v>2</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D66" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
-      <c r="C57">
+    <row r="67" spans="1:8">
+      <c r="C67">
         <v>3</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D67" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
-      <c r="C58">
+    <row r="68" spans="1:8">
+      <c r="C68">
         <v>4</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D68" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
-      <c r="C59">
+    <row r="69" spans="1:8">
+      <c r="C69">
         <v>5</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D69" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
-      <c r="C60">
+    <row r="70" spans="1:8">
+      <c r="C70">
         <v>6</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D70" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
-      <c r="C61">
+    <row r="71" spans="1:8">
+      <c r="C71">
         <v>7</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D71" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
-      <c r="E62" t="s">
+    <row r="72" spans="1:8">
+      <c r="E72" t="s">
         <v>46</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H72" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
-      <c r="E63" t="s">
+    <row r="73" spans="1:8">
+      <c r="E73" t="s">
         <v>47</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H73" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="C75">
+        <v>8</v>
+      </c>
+      <c r="D75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="E76" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="C77">
+        <v>9</v>
+      </c>
+      <c r="D77" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="D78">
+        <v>9.1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="D79">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E79" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13">
+      <c r="C81">
+        <v>10</v>
+      </c>
+      <c r="D81">
+        <v>10.1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13">
+      <c r="D82">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E82" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" spans="3:13">
+      <c r="D83">
+        <v>10.3</v>
+      </c>
+      <c r="E83" t="s">
+        <v>57</v>
+      </c>
+      <c r="M83" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13">
+      <c r="D84">
+        <v>10.4</v>
+      </c>
+      <c r="E84" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13">
+      <c r="E85" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13">
+      <c r="E86" t="s">
+        <v>61</v>
+      </c>
+      <c r="H86" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13">
+      <c r="E87" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13">
+      <c r="E88" t="s">
+        <v>64</v>
+      </c>
+      <c r="G88" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13">
+      <c r="D89">
+        <v>10.5</v>
+      </c>
+      <c r="E89" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13">
+      <c r="F90" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91" spans="3:13">
+      <c r="F91" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13">
+      <c r="D92">
+        <v>10.6</v>
+      </c>
+      <c r="E92" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13">
+      <c r="F94" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13">
+      <c r="F95" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
+      <c r="F97" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
+      <c r="A101">
+        <v>5</v>
+      </c>
+      <c r="B101" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17">
+      <c r="C104">
+        <v>3</v>
+      </c>
+      <c r="D104" t="s">
+        <v>84</v>
+      </c>
+      <c r="M104" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17">
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105" t="s">
+        <v>89</v>
+      </c>
+      <c r="F105" t="s">
+        <v>90</v>
+      </c>
+      <c r="K105" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17">
+      <c r="C106">
+        <v>5</v>
+      </c>
+      <c r="D106" t="s">
+        <v>92</v>
+      </c>
+      <c r="F106" t="s">
+        <v>93</v>
+      </c>
+      <c r="K106" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17">
+      <c r="C107">
+        <v>6</v>
+      </c>
+      <c r="D107" t="s">
+        <v>95</v>
+      </c>
+      <c r="F107" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17">
+      <c r="F108" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17">
+      <c r="F109" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17">
+      <c r="F110" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17">
+      <c r="D111" t="s">
+        <v>100</v>
+      </c>
+      <c r="F111" t="s">
+        <v>101</v>
+      </c>
+      <c r="K111" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="113" spans="4:15">
+      <c r="F113" t="s">
+        <v>103</v>
+      </c>
+      <c r="O113" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="4:15">
+      <c r="G114" t="s">
+        <v>104</v>
+      </c>
+      <c r="J114" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="115" spans="4:15">
+      <c r="G115" t="s">
+        <v>106</v>
+      </c>
+      <c r="J115" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="117" spans="4:15">
+      <c r="D117" t="s">
+        <v>109</v>
+      </c>
+      <c r="F117" t="s">
+        <v>110</v>
+      </c>
+      <c r="H117" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="119" spans="4:15">
+      <c r="D119" t="s">
+        <v>112</v>
+      </c>
+      <c r="F119" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="120" spans="4:15">
+      <c r="F120" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="121" spans="4:15">
+      <c r="F121" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="122" spans="4:15">
+      <c r="D122" t="s">
+        <v>116</v>
+      </c>
+      <c r="F122" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="123" spans="4:15">
+      <c r="D123" t="s">
+        <v>118</v>
+      </c>
+      <c r="F123" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="124" spans="4:15">
+      <c r="F124" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="125" spans="4:15">
+      <c r="D125" t="s">
+        <v>121</v>
+      </c>
+      <c r="F125" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="126" spans="4:15">
+      <c r="F126" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24">
+      <c r="A129" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24">
+      <c r="D130" t="s">
+        <v>125</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24">
+      <c r="E131">
+        <v>2</v>
+      </c>
+      <c r="F131" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24">
+      <c r="F132" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24">
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="H133" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24">
+      <c r="I134" t="s">
+        <v>130</v>
+      </c>
+      <c r="K134" t="s">
+        <v>131</v>
+      </c>
+      <c r="L134" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24">
+      <c r="I135" t="s">
+        <v>133</v>
+      </c>
+      <c r="K135" t="s">
+        <v>131</v>
+      </c>
+      <c r="L135" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24">
+      <c r="G136">
+        <v>2</v>
+      </c>
+      <c r="H136" t="s">
+        <v>135</v>
+      </c>
+      <c r="L136" t="s">
+        <v>137</v>
+      </c>
+      <c r="P136" t="s">
+        <v>138</v>
+      </c>
+      <c r="T136" t="s">
+        <v>140</v>
+      </c>
+      <c r="X136" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24">
+      <c r="G137">
+        <v>3</v>
+      </c>
+      <c r="H137" t="s">
+        <v>136</v>
+      </c>
+      <c r="L137" t="s">
+        <v>139</v>
+      </c>
+      <c r="T137" t="s">
+        <v>140</v>
+      </c>
+      <c r="X137" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24">
+      <c r="J139" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24">
+      <c r="K140" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24">
+      <c r="J142" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24">
+      <c r="K143" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24">
+      <c r="K144" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="145" spans="5:11">
+      <c r="K145" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="147" spans="5:11">
+      <c r="E147">
+        <v>3</v>
+      </c>
+      <c r="F147" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="148" spans="5:11">
+      <c r="F148" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="149" spans="5:11">
+      <c r="F149" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/PySpark/PySparkNotes.xlsx
+++ b/PySpark/PySparkNotes.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89C9034-FA68-4EF7-A9DA-7DC62C97757D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="JosePortilla" sheetId="2" r:id="rId2"/>
+    <sheet name="DataCamp" sheetId="3" r:id="rId3"/>
+    <sheet name="SibramNanda" sheetId="4" r:id="rId4"/>
+    <sheet name="AminKarami" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="188">
   <si>
     <t>Why Spark</t>
   </si>
@@ -669,12 +672,123 @@
   <si>
     <t>spark.read.format('csv').load("path/file.csv")</t>
   </si>
+  <si>
+    <t>10 hrs</t>
+  </si>
+  <si>
+    <t>Large Semistructured JSON file</t>
+  </si>
+  <si>
+    <t>Large Structured Log File</t>
+  </si>
+  <si>
+    <t>Distributed Processing Performance Tuning</t>
+  </si>
+  <si>
+    <t>Internals and SQL</t>
+  </si>
+  <si>
+    <t>ML and maths</t>
+  </si>
+  <si>
+    <t>Setup</t>
+  </si>
+  <si>
+    <t>Spark DF basics</t>
+  </si>
+  <si>
+    <t>ML many topics</t>
+  </si>
+  <si>
+    <t>Spark streaming</t>
+  </si>
+  <si>
+    <t>5 hours</t>
+  </si>
+  <si>
+    <t>Fundamentals</t>
+  </si>
+  <si>
+    <t>Local Spark</t>
+  </si>
+  <si>
+    <t>RDD Fundamentals</t>
+  </si>
+  <si>
+    <t>Advance Features</t>
+  </si>
+  <si>
+    <t>Advance Analytics</t>
+  </si>
+  <si>
+    <t>Kolas: Spark with Pandas</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>Streaming</t>
+  </si>
+  <si>
+    <t>29 hrs</t>
+  </si>
+  <si>
+    <t>HDFS course</t>
+  </si>
+  <si>
+    <t>Spark Intro</t>
+  </si>
+  <si>
+    <t>SparkSessions</t>
+  </si>
+  <si>
+    <t>RDD Fundamental</t>
+  </si>
+  <si>
+    <t>Creat RDD</t>
+  </si>
+  <si>
+    <t>RDD Operations</t>
+  </si>
+  <si>
+    <t>Spark Cluster Execution Architecture</t>
+  </si>
+  <si>
+    <t>RDD Persistence</t>
+  </si>
+  <si>
+    <t>Spark Shared Variables</t>
+  </si>
+  <si>
+    <t>Spark Sessions</t>
+  </si>
+  <si>
+    <t>DataFrame Fundamentals</t>
+  </si>
+  <si>
+    <t>DataTypes</t>
+  </si>
+  <si>
+    <t>DataFrame Rows</t>
+  </si>
+  <si>
+    <t>DataFrameColumns</t>
+  </si>
+  <si>
+    <t>DataFrame ETL</t>
+  </si>
+  <si>
+    <t>Performance Optimization</t>
+  </si>
+  <si>
+    <t>Ch4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -719,12 +833,18 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -739,16 +859,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -769,7 +898,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPr id="1026" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -809,7 +944,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPr id="1028" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -838,9 +979,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -878,7 +1019,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -912,6 +1053,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -946,9 +1088,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1121,16 +1264,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="H145" sqref="H145"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1138,7 +1281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>1.1000000000000001</v>
       </c>
@@ -1149,12 +1292,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>1.2</v>
       </c>
@@ -1162,22 +1305,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F9" t="s">
         <v>7</v>
       </c>
@@ -1185,17 +1328,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="G10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="G12" t="s">
         <v>10</v>
       </c>
@@ -1203,22 +1346,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>1.3</v>
       </c>
@@ -1226,7 +1369,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1234,7 +1377,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="N27">
         <v>1</v>
       </c>
@@ -1242,7 +1385,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="N28">
         <v>2</v>
       </c>
@@ -1250,7 +1393,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="N29">
         <v>3</v>
       </c>
@@ -1258,7 +1401,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="N30">
         <v>4</v>
       </c>
@@ -1266,7 +1409,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="N31">
         <v>5</v>
       </c>
@@ -1274,7 +1417,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="N32">
         <v>6</v>
       </c>
@@ -1282,7 +1425,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="N33">
         <v>7</v>
       </c>
@@ -1290,7 +1433,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="N34">
         <v>8</v>
       </c>
@@ -1298,7 +1441,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="N35">
         <v>9</v>
       </c>
@@ -1306,7 +1449,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="N36">
         <v>10</v>
       </c>
@@ -1314,7 +1457,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>3</v>
       </c>
@@ -1322,17 +1465,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C47" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C48" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="2:16">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C49" t="s">
         <v>22</v>
       </c>
@@ -1343,7 +1486,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="2:16">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C50" t="s">
         <v>35</v>
       </c>
@@ -1351,27 +1494,27 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="2:16">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C52" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="2:16">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C53" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="2:16">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C54" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="2:16">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="2:16">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C56" s="1" t="s">
         <v>70</v>
       </c>
@@ -1385,7 +1528,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="2:16">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C57" s="1" t="s">
         <v>74</v>
       </c>
@@ -1393,27 +1536,27 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="2:16">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="2:16">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="2:16">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="2:16">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="2:16">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C62" s="1"/>
     </row>
-    <row r="64" spans="2:16">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>4</v>
       </c>
@@ -1427,7 +1570,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C66">
         <v>2</v>
       </c>
@@ -1435,7 +1578,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C67">
         <v>3</v>
       </c>
@@ -1443,7 +1586,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C68">
         <v>4</v>
       </c>
@@ -1451,7 +1594,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C69">
         <v>5</v>
       </c>
@@ -1459,7 +1602,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C70">
         <v>6</v>
       </c>
@@ -1467,7 +1610,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C71">
         <v>7</v>
       </c>
@@ -1475,7 +1618,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E72" t="s">
         <v>46</v>
       </c>
@@ -1483,7 +1626,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E73" t="s">
         <v>47</v>
       </c>
@@ -1491,7 +1634,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C75">
         <v>8</v>
       </c>
@@ -1499,12 +1642,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E76" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C77">
         <v>9</v>
       </c>
@@ -1512,7 +1655,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D78">
         <v>9.1</v>
       </c>
@@ -1520,7 +1663,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D79">
         <v>9.1999999999999993</v>
       </c>
@@ -1528,7 +1671,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="3:13">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C81">
         <v>10</v>
       </c>
@@ -1539,7 +1682,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="3:13">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.35">
       <c r="D82">
         <v>10.199999999999999</v>
       </c>
@@ -1547,7 +1690,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="83" spans="3:13">
+    <row r="83" spans="3:13" x14ac:dyDescent="0.35">
       <c r="D83">
         <v>10.3</v>
       </c>
@@ -1558,7 +1701,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="3:13">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.35">
       <c r="D84">
         <v>10.4</v>
       </c>
@@ -1566,12 +1709,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="85" spans="3:13">
+    <row r="85" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E85" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="86" spans="3:13">
+    <row r="86" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E86" t="s">
         <v>61</v>
       </c>
@@ -1579,12 +1722,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="87" spans="3:13">
+    <row r="87" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E87" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="3:13">
+    <row r="88" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E88" t="s">
         <v>64</v>
       </c>
@@ -1592,7 +1735,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="3:13">
+    <row r="89" spans="3:13" x14ac:dyDescent="0.35">
       <c r="D89">
         <v>10.5</v>
       </c>
@@ -1600,17 +1743,17 @@
         <v>76</v>
       </c>
     </row>
-    <row r="90" spans="3:13">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.35">
       <c r="F90" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="91" spans="3:13">
+    <row r="91" spans="3:13" x14ac:dyDescent="0.35">
       <c r="F91" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="92" spans="3:13">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.35">
       <c r="D92">
         <v>10.6</v>
       </c>
@@ -1618,22 +1761,22 @@
         <v>79</v>
       </c>
     </row>
-    <row r="94" spans="3:13">
+    <row r="94" spans="3:13" x14ac:dyDescent="0.35">
       <c r="F94" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="3:13">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.35">
       <c r="F95" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="F97" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>5</v>
       </c>
@@ -1641,7 +1784,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C102">
         <v>1</v>
       </c>
@@ -1649,7 +1792,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C103">
         <v>2</v>
       </c>
@@ -1657,7 +1800,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C104">
         <v>3</v>
       </c>
@@ -1671,7 +1814,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C105">
         <v>4</v>
       </c>
@@ -1685,7 +1828,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C106">
         <v>5</v>
       </c>
@@ -1699,7 +1842,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C107">
         <v>6</v>
       </c>
@@ -1710,22 +1853,22 @@
         <v>96</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
       <c r="F108" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
       <c r="F109" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
       <c r="F110" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D111" t="s">
         <v>100</v>
       </c>
@@ -1736,7 +1879,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="113" spans="4:15">
+    <row r="113" spans="4:15" x14ac:dyDescent="0.35">
       <c r="F113" t="s">
         <v>103</v>
       </c>
@@ -1744,7 +1887,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="114" spans="4:15">
+    <row r="114" spans="4:15" x14ac:dyDescent="0.35">
       <c r="G114" t="s">
         <v>104</v>
       </c>
@@ -1752,7 +1895,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="115" spans="4:15">
+    <row r="115" spans="4:15" x14ac:dyDescent="0.35">
       <c r="G115" t="s">
         <v>106</v>
       </c>
@@ -1760,7 +1903,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="117" spans="4:15">
+    <row r="117" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D117" t="s">
         <v>109</v>
       </c>
@@ -1771,7 +1914,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="119" spans="4:15">
+    <row r="119" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D119" t="s">
         <v>112</v>
       </c>
@@ -1779,17 +1922,17 @@
         <v>113</v>
       </c>
     </row>
-    <row r="120" spans="4:15">
+    <row r="120" spans="4:15" x14ac:dyDescent="0.35">
       <c r="F120" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="121" spans="4:15">
+    <row r="121" spans="4:15" x14ac:dyDescent="0.35">
       <c r="F121" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="122" spans="4:15">
+    <row r="122" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D122" t="s">
         <v>116</v>
       </c>
@@ -1797,7 +1940,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="123" spans="4:15">
+    <row r="123" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D123" t="s">
         <v>118</v>
       </c>
@@ -1805,12 +1948,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="124" spans="4:15">
+    <row r="124" spans="4:15" x14ac:dyDescent="0.35">
       <c r="F124" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="125" spans="4:15">
+    <row r="125" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D125" t="s">
         <v>121</v>
       </c>
@@ -1818,17 +1961,17 @@
         <v>122</v>
       </c>
     </row>
-    <row r="126" spans="4:15">
+    <row r="126" spans="4:15" x14ac:dyDescent="0.35">
       <c r="F126" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="129" spans="1:24">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="130" spans="1:24">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.35">
       <c r="D130" t="s">
         <v>125</v>
       </c>
@@ -1839,7 +1982,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="131" spans="1:24">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.35">
       <c r="E131">
         <v>2</v>
       </c>
@@ -1847,12 +1990,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="132" spans="1:24">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.35">
       <c r="F132" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="133" spans="1:24">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.35">
       <c r="G133">
         <v>1</v>
       </c>
@@ -1860,7 +2003,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="134" spans="1:24">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.35">
       <c r="I134" t="s">
         <v>130</v>
       </c>
@@ -1871,7 +2014,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:24">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.35">
       <c r="I135" t="s">
         <v>133</v>
       </c>
@@ -1882,7 +2025,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:24">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.35">
       <c r="G136">
         <v>2</v>
       </c>
@@ -1902,7 +2045,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="137" spans="1:24">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.35">
       <c r="G137">
         <v>3</v>
       </c>
@@ -1919,37 +2062,37 @@
         <v>141</v>
       </c>
     </row>
-    <row r="139" spans="1:24">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.35">
       <c r="J139" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="140" spans="1:24">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.35">
       <c r="K140" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="142" spans="1:24">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.35">
       <c r="J142" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="143" spans="1:24">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.35">
       <c r="K143" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="144" spans="1:24">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.35">
       <c r="K144" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="145" spans="5:11">
+    <row r="145" spans="5:11" x14ac:dyDescent="0.35">
       <c r="K145" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="147" spans="5:11">
+    <row r="147" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E147">
         <v>3</v>
       </c>
@@ -1957,12 +2100,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="148" spans="5:11">
+    <row r="148" spans="5:11" x14ac:dyDescent="0.35">
       <c r="F148" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="149" spans="5:11">
+    <row r="149" spans="5:11" x14ac:dyDescent="0.35">
       <c r="F149" t="s">
         <v>150</v>
       </c>
@@ -1974,25 +2117,386 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD78CC9-6D51-4005-901F-8CBD32AD2F69}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F2FE25F-722F-49F6-9D5D-8AAD0C7A88D7}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PySpark/PySparkNotes.xlsx
+++ b/PySpark/PySparkNotes.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89C9034-FA68-4EF7-A9DA-7DC62C97757D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A06D7A-1B8C-4638-AFD8-DD4743956ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="323">
   <si>
     <t>Why Spark</t>
   </si>
@@ -676,21 +676,6 @@
     <t>10 hrs</t>
   </si>
   <si>
-    <t>Large Semistructured JSON file</t>
-  </si>
-  <si>
-    <t>Large Structured Log File</t>
-  </si>
-  <si>
-    <t>Distributed Processing Performance Tuning</t>
-  </si>
-  <si>
-    <t>Internals and SQL</t>
-  </si>
-  <si>
-    <t>ML and maths</t>
-  </si>
-  <si>
     <t>Setup</t>
   </si>
   <si>
@@ -782,13 +767,433 @@
   </si>
   <si>
     <t>Ch4</t>
+  </si>
+  <si>
+    <t>4) --- Why spk -----</t>
+  </si>
+  <si>
+    <t>--- volume (the size of data)</t>
+  </si>
+  <si>
+    <t>--- CPU and Memory are not capable to handle this size of data</t>
+  </si>
+  <si>
+    <t>--- Parallel processing is needed.</t>
+  </si>
+  <si>
+    <t>--- If the file is 1 GB , the first step is to split the data (partitions). second step is to convert the code that can run in parallel format. The third step is to aggregate the result.</t>
+  </si>
+  <si>
+    <t>--- Each partition if data can be put on different work station.</t>
+  </si>
+  <si>
+    <t>--- spk splits the data into memory</t>
+  </si>
+  <si>
+    <t>--- 1 GB of data needs to be sent to spk engine. spk engine has component called sc (or driver node).</t>
+  </si>
+  <si>
+    <t>--- driver node (sc) takes the data and puts it in cluster. It finds out how many cores we have in cluster</t>
+  </si>
+  <si>
+    <t>--- we have to consider memory (sehared between cores) and total cores(worker nodes) availablle in cluster</t>
+  </si>
+  <si>
+    <t>--- we also have cluster manager(or resource manager).</t>
+  </si>
+  <si>
+    <t>--- if we decide to have 4 partitions and if we have 2 cores, then there will be 4 partitions in memory, each about 250 MB</t>
+  </si>
+  <si>
+    <t>--- aggregation can be at worker node OR at at driver node.</t>
+  </si>
+  <si>
+    <t>--- these 4 partitions can be inside any of the data structures (RDD or DF or Dataset). Dataset is in scalla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4) --- Why spk ----- </t>
+  </si>
+  <si>
+    <t>5) --- Initial commands</t>
+  </si>
+  <si>
+    <t>--- SparkContext is driver program (Driver program that connets your application to cluster)</t>
+  </si>
+  <si>
+    <t>--- SparkConf is to configure Spark</t>
+  </si>
+  <si>
+    <t>--- conf1 = SparkConf().setAppName('appName').setMaster("local[*]")</t>
+  </si>
+  <si>
+    <t>--- sc = SparkContext(conf= conf1)</t>
+  </si>
+  <si>
+    <t>from pyspark import SparkContext , SparkConf</t>
+  </si>
+  <si>
+    <t>conf1 = SparkConf().setAppName('appName').setMaster("local[2]")</t>
+  </si>
+  <si>
+    <t>sc = SparkContext(conf= conf1)</t>
+  </si>
+  <si>
+    <t>sc.defaultParallelism</t>
+  </si>
+  <si>
+    <t>6) --RDD--</t>
+  </si>
+  <si>
+    <t>--- Core compoent</t>
+  </si>
+  <si>
+    <t>--- How to apply python over RDD</t>
+  </si>
+  <si>
+    <t>--- If you want to send 1 GB of data to cluster for parallel processing and if you have 2 cores, if you decide to partition data into 4 partitions, then the combination of these 4 partitions is called RDD</t>
+  </si>
+  <si>
+    <t>--- RDD will take these partitins and apply computations over these partitions</t>
+  </si>
+  <si>
+    <t>--- Resilient, distributed dataset. Read Only, and we can not change RDDs. when computation is applied, it creates new RDDs</t>
+  </si>
+  <si>
+    <t>--- Fault tolerent.. It uses DAG .. Directed cyclic graph is used to recover from previous stage.</t>
+  </si>
+  <si>
+    <t>--- There are two types of operations that can be done on RDD (Transformations AND Actions)</t>
+  </si>
+  <si>
+    <t>--- If you have 4 partitions and you want to add 4 to each element, then</t>
+  </si>
+  <si>
+    <t>--- It will add 4 and create 4 new partitions.. It is called mapping</t>
+  </si>
+  <si>
+    <t>--- RDDs are not readable. to make it readable, we have to apply action.</t>
+  </si>
+  <si>
+    <t>import random</t>
+  </si>
+  <si>
+    <t>rndlist = random.sample(range(0,40),10)</t>
+  </si>
+  <si>
+    <t>rdd1 = sc.parallelize(rndlist, 4)</t>
+  </si>
+  <si>
+    <t>rdd1.glom().collect()</t>
+  </si>
+  <si>
+    <t>--- Action is run on driver. So don't run large dataset action on driver </t>
+  </si>
+  <si>
+    <t>--- Do all parallel operations using transformations and not Actions</t>
+  </si>
+  <si>
+    <t>--- rdd1_map= rdd1.map(lambda x: x+10) # here calculation is applied on each element and same number of new RDDs are generated</t>
+  </si>
+  <si>
+    <t>--- rdd1_filter = rdd1.filter(lambda x: x&gt;20) # This filter will only return values that satisfy. there can be some empty partitions also</t>
+  </si>
+  <si>
+    <t>--- rdd1.map(lambda x:x &gt;20).glom().collect() # map will return TRUE FALSE for each value</t>
+  </si>
+  <si>
+    <t>--- rdd1_map= rdd1.map(lambda x: [x+3, x+7]) # this will return a pair of values. You can use flatmap on it</t>
+  </si>
+  <si>
+    <t>--- rdd1_flatmap= rdd1.flatMap(lambda x: [x+3, x+7]) # this will give one single list with all elements. Apply aggregation on it</t>
+  </si>
+  <si>
+    <t>--- rdd1_flatmap.reduce(lambda x,y: x+y) # this is a transformation that will result in a single value.</t>
+  </si>
+  <si>
+    <t>--- If results of each partition is needed, then </t>
+  </si>
+  <si>
+    <t>--- define a function that has yield to return values of each partition</t>
+  </si>
+  <si>
+    <t>def fn1(part):</t>
+  </si>
+  <si>
+    <t>  sum=0</t>
+  </si>
+  <si>
+    <t>  for i in part:</t>
+  </si>
+  <si>
+    <t>    sum = sum+i</t>
+  </si>
+  <si>
+    <t>  yield sum</t>
+  </si>
+  <si>
+    <t>--- rdd1.mapPartitions(fn1).collect()  # apply this function to rdd1</t>
+  </si>
+  <si>
+    <t>7) ----</t>
+  </si>
+  <si>
+    <t>--- rdd_union = rdd1.union(rdd2)</t>
+  </si>
+  <si>
+    <t>--- rdd_union.getNumPartitions() # number of partitions will be sum of partitions in rdd1 and rdd2</t>
+  </si>
+  <si>
+    <t>--- rdd_intersection= rdd1.intersection(rdd2)</t>
+  </si>
+  <si>
+    <t>--- rdd_intersection.coalesce(1).glom().collect() # reduces partitions to 1</t>
+  </si>
+  <si>
+    <t>--- rdd_intersection.takeSample(False, 2) # this runs on driver, so be careful</t>
+  </si>
+  <si>
+    <t>---  rdd_kv.lookup('Acc') # to lookup the values</t>
+  </si>
+  <si>
+    <t>--- from pyspark import StorageLevel </t>
+  </si>
+  <si>
+    <t>--- rdd_kv.persist(StorageLevel.MEMORY_AND_DISK) # this will use both disk and memory for RDD</t>
+  </si>
+  <si>
+    <t>8) --- DF ----</t>
+  </si>
+  <si>
+    <t>--- DF will speed up the processing</t>
+  </si>
+  <si>
+    <t>--- Can only work with specific columns. </t>
+  </si>
+  <si>
+    <t>--- SparkContext and SQL Context are loaded.. Both are called Spark Session</t>
+  </si>
+  <si>
+    <t>--- Three ways of working with DF</t>
+  </si>
+  <si>
+    <t>--- DF Standalone operations (Transformations, Actions)</t>
+  </si>
+  <si>
+    <t>--- Transformation (select, where, filter, groupby, having join)</t>
+  </si>
+  <si>
+    <t>--- Action (show)</t>
+  </si>
+  <si>
+    <t>--- NO OPTIMIZATION SO NOT SUGGESTED</t>
+  </si>
+  <si>
+    <t>--- df1= sSession.read.format('csv').load("C:/Users/Anupam/Downloads/CompleteDataset.csv", header = True)</t>
+  </si>
+  <si>
+    <t>--- OR </t>
+  </si>
+  <si>
+    <t>data = [</t>
+  </si>
+  <si>
+    <t>  {"name": "Alice", "age": 25},</t>
+  </si>
+  <si>
+    <t>  {"name": "Bob", "age": 30},</t>
+  </si>
+  <si>
+    <t>  {"name": "Charlie", "age": 35}</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>df = spark.createDataFrame(data)</t>
+  </si>
+  <si>
+    <t>---- OR </t>
+  </si>
+  <si>
+    <t>schema = ["name", "age"]</t>
+  </si>
+  <si>
+    <t>df = spark.createDataFrame(rdd, schema)</t>
+  </si>
+  <si>
+    <t>--- Spark SQL</t>
+  </si>
+  <si>
+    <t>--- UDF (If a function to be applied over data)</t>
+  </si>
+  <si>
+    <t>--- Both Spark SQL and UDF use optimizations</t>
+  </si>
+  <si>
+    <t>--- Catalyst query optimized</t>
+  </si>
+  <si>
+    <t>--- rule based and cost based optimization</t>
+  </si>
+  <si>
+    <t>--- Project Tungsten</t>
+  </si>
+  <si>
+    <t>---- cache awareness</t>
+  </si>
+  <si>
+    <t>---- memory management</t>
+  </si>
+  <si>
+    <t>---- code generation using modern compilers for parallel processing</t>
+  </si>
+  <si>
+    <t>--- from pyspark.sql import SparkSession</t>
+  </si>
+  <si>
+    <t>--- spk = SparkSession.builder.getOrCreate()</t>
+  </si>
+  <si>
+    <t>import pandas as pd</t>
+  </si>
+  <si>
+    <t>pd.set_option("display.max_columns", None) # show all columns</t>
+  </si>
+  <si>
+    <t>pd.set_option("display.max_colwidth", None) # show full content of each column</t>
+  </si>
+  <si>
+    <t>pd.set_option("display.width", 1000)    # widen overall display</t>
+  </si>
+  <si>
+    <t>dfSPY.limit(2).toPandas() </t>
+  </si>
+  <si>
+    <t>--- dfCD.rdd.getNumPartitions() # DF have no property getNumberOfPartitions, so convert it to RDD first</t>
+  </si>
+  <si>
+    <t>--- dfCD= dfCD.coalesce(2) # reduce number of partitions</t>
+  </si>
+  <si>
+    <t>--- dfCD = dfCD.repartition(4) # repartition as needed</t>
+  </si>
+  <si>
+    <t>--- dfCD= dfCD.withColumnRenamed('_c0', 'ID') </t>
+  </si>
+  <si>
+    <t>--- dfCD= dfCD.fillna({"RAM":"NNN"})</t>
+  </si>
+  <si>
+    <t>--- dfCD.filter(dfCD['Overall']&gt;70).limit(6).toPandas() # filter column</t>
+  </si>
+  <si>
+    <t>--- dfCD.filter(dfCD['Overall']&gt;70).select("Name", "Overall").limit(7).toPandas()</t>
+  </si>
+  <si>
+    <t>--- dfCD.filter(dfCD['Overall']&gt;70).groupBy("Name").count().sort('Name').limit(7).toPandas()</t>
+  </si>
+  <si>
+    <t>10) --- UDF and SQL---</t>
+  </si>
+  <si>
+    <t>--- For optimization, use sql and udf and not stand alone DF API</t>
+  </si>
+  <si>
+    <t>--- Register DF as localTempView and run query on it</t>
+  </si>
+  <si>
+    <t>--- df1.createOrReplaceTempView("df1TempView") # Step1 resister a view as TempVies</t>
+  </si>
+  <si>
+    <t>--- "select age, count(*) as count from df1TempView" # Step2, write a query</t>
+  </si>
+  <si>
+    <t>--- result = sSession.sql(sql_q) # setp3, </t>
+  </si>
+  <si>
+    <t>--- result.show() </t>
+  </si>
+  <si>
+    <t>--- UDF--- </t>
+  </si>
+  <si>
+    <t>--- create a UDF </t>
+  </si>
+  <si>
+    <t>def udfExample(record):</t>
+  </si>
+  <si>
+    <t>  if len(record)&gt;10:</t>
+  </si>
+  <si>
+    <t>    return record.upper()</t>
+  </si>
+  <si>
+    <t>  else:</t>
+  </si>
+  <si>
+    <t>    return record.lower()</t>
+  </si>
+  <si>
+    <t>--- Step2 register UDF with a name</t>
+  </si>
+  <si>
+    <t>sSession.udf.register("RegName", udfExample)</t>
+  </si>
+  <si>
+    <t>--- Step3 , write sql where registered UDF is called</t>
+  </si>
+  <si>
+    <t>sql_q = "select age , RegName(Name), RegName(Club) from df1TempView"</t>
+  </si>
+  <si>
+    <t>--- Step 4 , execute and get result and then sow</t>
+  </si>
+  <si>
+    <t>result1 = sSession.sql(sql_q)</t>
+  </si>
+  <si>
+    <t>result1.show()</t>
+  </si>
+  <si>
+    <t>11) --- Read Json to RDD ---</t>
+  </si>
+  <si>
+    <t>---- jsnFile = sc.textFile("C:/Users/Anupam/Downloads/arxiv-metadata-oai-snapshot.json", 100) # 100 partitions ...jsnFile is an RDD</t>
+  </si>
+  <si>
+    <t>---- rddJsn = jsnFile.map(lambda x: json.loads(x)) # the file needs to be loaded as json</t>
+  </si>
+  <si>
+    <t>---- rddJsn.persist() # This will keep the data in memory</t>
+  </si>
+  <si>
+    <t>---- rddJsn.getNumPartitions() # tells number of partitions</t>
+  </si>
+  <si>
+    <t>---- sc.defaultParallelism # tells number of cores available</t>
+  </si>
+  <si>
+    <t>---- rddJsn,count()</t>
+  </si>
+  <si>
+    <t>---- goto http://localhost:4040  to see details</t>
+  </si>
+  <si>
+    <t>---- rdd.take(2) # take 2 records</t>
+  </si>
+  <si>
+    <t>11) --- Json ---</t>
+  </si>
+  <si>
+    <t>rdd.flatMap(lambda x: x.keys()).distinct().collect() # finds all keys from a json file</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -832,6 +1237,11 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Lato"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -859,11 +1269,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2139,7 +2550,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -2147,7 +2558,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -2155,7 +2566,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -2163,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2175,7 +2586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
@@ -2186,7 +2597,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -2194,7 +2605,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -2202,7 +2613,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -2210,7 +2621,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -2226,7 +2637,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -2234,7 +2645,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -2242,7 +2653,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -2250,7 +2661,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -2258,7 +2669,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -2268,7 +2679,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
@@ -2294,7 +2705,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -2302,7 +2713,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -2310,7 +2721,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -2318,7 +2729,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -2326,7 +2737,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -2334,7 +2745,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -2342,7 +2753,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -2350,7 +2761,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -2358,7 +2769,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -2366,7 +2777,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -2382,7 +2793,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -2390,7 +2801,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -2398,7 +2809,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -2406,7 +2817,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -2414,7 +2825,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -2422,7 +2833,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -2430,7 +2841,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2440,60 +2851,730 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F2FE25F-722F-49F6-9D5D-8AAD0C7A88D7}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A2:B155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>156</v>
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B64" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B66" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B69" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B70" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B71" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B72" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B73" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B76" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B77" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B78" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B79" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B80" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B81" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B82" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B83" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B84" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B85" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B86" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B87" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B88" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B89" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B90" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B91" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B92" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B93" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B94" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B95" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B96" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B97" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B98" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B99" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B100" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B101" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B102" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B103" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B104" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B105" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B106" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B107" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B108" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B109" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B110" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B111" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B112" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B113" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B114" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B115" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B116" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B117" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B118" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B123" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B124" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B125" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B126" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B127" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B128" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B129" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B130" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B131" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B132" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B133" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B134" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B135" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B136" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B137" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B138" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B139" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B140" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B141" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B142" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B146" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B147" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B148" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B149" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B150" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B151" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B152" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B153" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B154" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>

--- a/PySpark/PySparkNotes.xlsx
+++ b/PySpark/PySparkNotes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A06D7A-1B8C-4638-AFD8-DD4743956ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198D3A79-D726-412F-B689-12952481E54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,12 +14,23 @@
     <sheet name="SibramNanda" sheetId="4" r:id="rId4"/>
     <sheet name="AminKarami" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="364">
   <si>
     <t>Why Spark</t>
   </si>
@@ -1187,6 +1198,132 @@
   </si>
   <si>
     <t>rdd.flatMap(lambda x: x.keys()).distinct().collect() # finds all keys from a json file</t>
+  </si>
+  <si>
+    <t>######################################################################################################################</t>
+  </si>
+  <si>
+    <t>6) #########################</t>
+  </si>
+  <si>
+    <t>1)</t>
+  </si>
+  <si>
+    <t>Linking with spark</t>
+  </si>
+  <si>
+    <t>2)</t>
+  </si>
+  <si>
+    <t>conf1 = SparkConf().setAppName("AppName").setMaster("local[2]")</t>
+  </si>
+  <si>
+    <t>sContext = SparkContext(conf= conf1)</t>
+  </si>
+  <si>
+    <t>Initialize Spark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3) </t>
+  </si>
+  <si>
+    <t>There are 2 ways of creating RDD (Parallalize) and (Referening dataset from external source offering Hadoop input format</t>
+  </si>
+  <si>
+    <t>randomList = random.sample(range(0,40),10)</t>
+  </si>
+  <si>
+    <t>rdd1 = sContext.parallelize(randomList, 4) # creates RDD with 4 partitions</t>
+  </si>
+  <si>
+    <t>print (rdd1.getNumPartitions(), rdd1.glom().collect())  # shows number of partions and the data in each partition</t>
+  </si>
+  <si>
+    <t>[rdd1.glom().collect()[x] for x in [0,2,3] ]  # This will get the partions of choice.. see entite is in []</t>
+  </si>
+  <si>
+    <t>rdd1.glom().collect()[-1]  # last partion</t>
+  </si>
+  <si>
+    <t>rdd1.count() # counts all elements in rdd</t>
+  </si>
+  <si>
+    <t>rdd1.first() # there is no last</t>
+  </si>
+  <si>
+    <t>rdd1.distinct().collect() # distinct</t>
+  </si>
+  <si>
+    <t>rdd1.map(lambda x: x*2).collect() # use map to process each element</t>
+  </si>
+  <si>
+    <t>rdd1.map(lambda x: x&lt;30).collect() # map gives True or false if condition is used</t>
+  </si>
+  <si>
+    <t>rdd1.filter(lambda x: x&lt;30).collect() # filter the rdd</t>
+  </si>
+  <si>
+    <t>print(rdd1.mean() , rdd1.stdev(), rdd1.min()) # stats</t>
+  </si>
+  <si>
+    <t>rdd1.map (lambda x: [x+2, x+5]).collect() # two vales for each value</t>
+  </si>
+  <si>
+    <t>rdd1.flatMap (lambda x: [x+2, x+5]).collect() # two vales for each value</t>
+  </si>
+  <si>
+    <t>rdd1.mapPartitions(myFnForPartitions).collect()  # use yield in user defined function</t>
+  </si>
+  <si>
+    <t>Create RDD and basic operations</t>
+  </si>
+  <si>
+    <t>4)</t>
+  </si>
+  <si>
+    <t>Advance RDDs</t>
+  </si>
+  <si>
+    <t>rddUnion = rdd1.union(rdd2)  #union</t>
+  </si>
+  <si>
+    <t>rddIntersection = rdd1.intersection(rdd2)</t>
+  </si>
+  <si>
+    <t>for i in rddIntersection.glom().collect():
+  if len(i)&gt;0:
+    print(i)</t>
+  </si>
+  <si>
+    <t>rddIntersection.coalesce(1).glom().collect() # reduces the number of partions to 1</t>
+  </si>
+  <si>
+    <t>rdd1.takeSample(False, 2) # false means without replacement</t>
+  </si>
+  <si>
+    <t>rdd1.reduce(lambda x,y: x+y)</t>
+  </si>
+  <si>
+    <t>rdd_Rbk.reduceByKey(lambda x,y: x if x&gt;y else y).collect()</t>
+  </si>
+  <si>
+    <t>rdd_Rbk.reduceByKey(lambda x,y: x if x&gt;y else y).sortByKey().collect() # will give results sorder by ascending order of keys</t>
+  </si>
+  <si>
+    <t>rdd_groupBy = rdd_Rbk.groupByKey()  # creates rdd with group of keys</t>
+  </si>
+  <si>
+    <t>for i in rdd_groupBy.collect():
+  print(i[0], [ v for v in  i[1]])</t>
+  </si>
+  <si>
+    <t>rdd_Rbk.lookup(7)   # pass a key to lookup and get the values of key</t>
+  </si>
+  <si>
+    <t>from pyspark import StorageLevel</t>
+  </si>
+  <si>
+    <t>rdd1.persist(StorageLevel.MEMORY_AND_DISK)</t>
   </si>
 </sst>
 </file>
@@ -1269,12 +1406,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2851,9 +2991,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F2FE25F-722F-49F6-9D5D-8AAD0C7A88D7}">
-  <dimension ref="A2:B155"/>
+  <dimension ref="A2:D196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A189" zoomScale="95" workbookViewId="0">
+      <selection activeCell="D197" sqref="D197"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -2932,7 +3074,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4" t="s">
         <v>198</v>
       </c>
@@ -3057,7 +3199,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="4" t="s">
         <v>207</v>
       </c>
@@ -3522,62 +3664,270 @@
         <v>291</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B146" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B147" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B149" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B150" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B151" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B152" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B153" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B154" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>321</v>
       </c>
     </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B159" t="s">
+        <v>325</v>
+      </c>
+      <c r="C159" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D160" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B161" t="s">
+        <v>327</v>
+      </c>
+      <c r="C161" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D162" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D163" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B164" t="s">
+        <v>331</v>
+      </c>
+      <c r="C164" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D165" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D166" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D167" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D168" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D169" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D170" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D171" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D172" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D173" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D174" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D175" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D176" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D177" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D178" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D179" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D180" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B181" t="s">
+        <v>349</v>
+      </c>
+      <c r="C181" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D182" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D183" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="D184" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C186" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C187" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C188" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C189" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C190" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C191" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="D192" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="193" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C193" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="194" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C194" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="195" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D195" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="196" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D196" t="s">
+        <v>363</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PySpark/PySparkNotes.xlsx
+++ b/PySpark/PySparkNotes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198D3A79-D726-412F-B689-12952481E54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C813BFE0-428A-487D-AC0E-045F1DF703D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="403">
   <si>
     <t>Why Spark</t>
   </si>
@@ -1324,6 +1324,123 @@
   </si>
   <si>
     <t>rdd1.persist(StorageLevel.MEMORY_AND_DISK)</t>
+  </si>
+  <si>
+    <t>9)</t>
+  </si>
+  <si>
+    <t>Working with DF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) </t>
+  </si>
+  <si>
+    <t>Link with Spark and creating DF</t>
+  </si>
+  <si>
+    <t>sSession = SparkSession.builder.master('local[*]').getOrCreate()</t>
+  </si>
+  <si>
+    <t>df1 = sSession.read.format('csv').load('/content/drive/MyDrive/pyspark/datafiles/CompleteDataset.csv', header= True, inferSchema= True)</t>
+  </si>
+  <si>
+    <t>df1.limit(10).show()</t>
+  </si>
+  <si>
+    <t>df1.rdd.getNumPartitions()</t>
+  </si>
+  <si>
+    <t>df2.rdd.getNumPartitions() # repartioned and use rdd on DF</t>
+  </si>
+  <si>
+    <t>df2 = df1.repartition(4) # creates 4 partions</t>
+  </si>
+  <si>
+    <t>df2.show()</t>
+  </si>
+  <si>
+    <t>df2= df2.withColumnsRenamed({"_c0":"T1", "Flag": "Flg"})  # renamed</t>
+  </si>
+  <si>
+    <t>df2.select('T1','Name','Overall').distinct().limit(5).show()</t>
+  </si>
+  <si>
+    <t>partitions and commands</t>
+  </si>
+  <si>
+    <t>df2.filter(df2['Overall']&gt;20).show()  # filter and where are same</t>
+  </si>
+  <si>
+    <t>df2.filter(df2['Overall']&gt;20).groupBy('Overall').max('Age').show()</t>
+  </si>
+  <si>
+    <t>Create Tempview</t>
+  </si>
+  <si>
+    <t>sqlqry = "select Name, Age, max(Overall)  from df2TempView where Overall &gt;20 group By Name, Age"</t>
+  </si>
+  <si>
+    <t>df2.createTempView('df2TempView')</t>
+  </si>
+  <si>
+    <t>result = sSession.sql(sqlqry)</t>
+  </si>
+  <si>
+    <t>result.show()</t>
+  </si>
+  <si>
+    <t>sSession.udf.register('FnGivenName', fnUpper)</t>
+  </si>
+  <si>
+    <t>sqlqry = "select FnGivenName(Name), Age, max(Overall)  from df2TempView where Overall &gt;20 group By Name, Age"</t>
+  </si>
+  <si>
+    <t>JSON RDD</t>
+  </si>
+  <si>
+    <t>import json</t>
+  </si>
+  <si>
+    <t>import pyspark</t>
+  </si>
+  <si>
+    <t>conf1 = SparkConf().setAppName('AppName').setMaster('local[*]')</t>
+  </si>
+  <si>
+    <t>sContext =  SparkContext(conf= conf1)</t>
+  </si>
+  <si>
+    <t>jsonRdd = sContext.textFile("/content/drive/MyDrive/pyspark/datafiles/arxiv-metadata-oai-snapshot.json", 100)</t>
+  </si>
+  <si>
+    <t>rddJson = jsonRdd.map(lambda x: json.loads(x))</t>
+  </si>
+  <si>
+    <t>rddJson.take(2)</t>
+  </si>
+  <si>
+    <t>rddJson.map(lambda x: x['license']).distinct().collect()  # license</t>
+  </si>
+  <si>
+    <t>rddJson.count() # count</t>
+  </si>
+  <si>
+    <t>rddJson.flatMap(lambda x: x.keys()).distinct().collect()  # collect all attribues when file is json</t>
+  </si>
+  <si>
+    <t>rddJson.map(lambda x: x['license']).distinct().collect()  # All liceses</t>
+  </si>
+  <si>
+    <t>titleName = rddJson.map(lambda x: x['title']).distinct()</t>
+  </si>
+  <si>
+    <t>titleName.reduce(lambda x,y: x if len(x)&gt;len(y) else y)  # longest title name</t>
+  </si>
+  <si>
+    <t>rddJson.map(lambda x: [datefn(x['update_date']),1]).reduceByKey(lambda x,y: x+y).collect()  # datefn returns month, then a group of maonth and 1 is created. Then reduceByKKey and here x,y will be both 1s of that month</t>
+  </si>
+  <si>
+    <t>jsonDF</t>
   </si>
 </sst>
 </file>
@@ -2991,10 +3108,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F2FE25F-722F-49F6-9D5D-8AAD0C7A88D7}">
-  <dimension ref="A2:D196"/>
+  <dimension ref="A2:D240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" zoomScale="95" workbookViewId="0">
-      <selection activeCell="D197" sqref="D197"/>
+    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="95" workbookViewId="0">
+      <selection activeCell="C240" sqref="C240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3906,24 +4023,231 @@
         <v>360</v>
       </c>
     </row>
-    <row r="193" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C193" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="194" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C194" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="195" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D195" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="196" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D196" t="s">
         <v>363</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>364</v>
+      </c>
+      <c r="B199" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B200" t="s">
+        <v>366</v>
+      </c>
+      <c r="C200" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D201" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D202" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D203" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D204" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C205" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D206" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D207" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D208" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D209" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D210" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D211" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D212" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D213" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C215" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D216" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D217" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D218" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D219" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D220" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D221" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A223">
+        <v>11</v>
+      </c>
+      <c r="B223" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D224" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D225" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D226" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D227" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D228" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D229" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D230" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D231" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D232" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D233" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D234" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D235" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D236" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D237" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D238" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A240">
+        <v>12</v>
+      </c>
+      <c r="B240" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>
